--- a/data/PorscheTaycan.xlsx
+++ b/data/PorscheTaycan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainer/Py/PyData/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D699FEB9-D6CA-2642-BF1E-F5E9883C05AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB354C-463F-9544-9E9E-89D93FCA3717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="2980" windowWidth="28240" windowHeight="17560" xr2:uid="{78B56654-D18F-A449-80C9-C4867EA7F085}"/>
+    <workbookView xWindow="22220" yWindow="8000" windowWidth="28240" windowHeight="17560" xr2:uid="{78B56654-D18F-A449-80C9-C4867EA7F085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="2">
         <f>1800</f>

--- a/data/PorscheTaycan.xlsx
+++ b/data/PorscheTaycan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainer/Py/PyData/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB354C-463F-9544-9E9E-89D93FCA3717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46F8E2-89BE-864E-A589-55106F1EB90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22220" yWindow="8000" windowWidth="28240" windowHeight="17560" xr2:uid="{78B56654-D18F-A449-80C9-C4867EA7F085}"/>
+    <workbookView xWindow="21360" yWindow="6720" windowWidth="28240" windowHeight="17560" xr2:uid="{78B56654-D18F-A449-80C9-C4867EA7F085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
